--- a/Практика/Praktika2/Praktika 2.xlsx
+++ b/Практика/Praktika2/Praktika 2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>№ варианта</t>
   </si>
@@ -606,6 +606,12 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>amicro</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1041,85 +1047,86 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1724,6 +1731,142 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3444476</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>13940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3643259</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>178076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11" descr="Image122"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3444476" y="13766575"/>
+          <a:ext cx="198783" cy="164136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>131725</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>341275</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>86266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12" descr="Image124"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4703725" y="13067376"/>
+          <a:ext cx="1389185" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1990,15 +2133,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1"/>
+    <col min="1" max="1" width="68.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -2007,44 +2150,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -2119,18 +2262,18 @@
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="30" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="35" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2138,19 +2281,19 @@
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="27" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="31"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="9">
         <v>1</v>
       </c>
@@ -2160,16 +2303,16 @@
       <c r="F14" s="9">
         <v>3</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="8">
         <v>0.69616630000000002</v>
       </c>
@@ -2179,12 +2322,12 @@
       <c r="F15" s="8">
         <v>0.89747940000000004</v>
       </c>
-      <c r="G15" s="35"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="10">
         <v>6.8404300000000001E-2</v>
       </c>
@@ -2194,7 +2337,7 @@
       <c r="F16" s="10">
         <v>9.8961609999999993</v>
       </c>
-      <c r="G16" s="23"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -2203,7 +2346,7 @@
       <c r="B17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="11">
         <v>0.70285540000000002</v>
       </c>
@@ -2213,14 +2356,14 @@
       <c r="F17" s="11">
         <v>0.89745399999999997</v>
       </c>
-      <c r="G17" s="39"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="37"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="13">
         <v>7.2772299999999998E-2</v>
       </c>
@@ -2230,18 +2373,18 @@
       <c r="F18" s="13">
         <v>9.8961609999999993</v>
       </c>
-      <c r="G18" s="40"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="38"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="41"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
@@ -2249,59 +2392,59 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43">
+      <c r="A22" s="18">
         <f>PRODUCT(D15,POWER(B3,2)/(POWER(B3,2)-POWER(D16,2)))</f>
         <v>0.69748194481831183</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="43">
+      <c r="A23" s="18">
         <f>PRODUCT(E15,POWER(B3,2)/(POWER(B3,2)-POWER(E16,2)))</f>
         <v>0.41017684961997203</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="43">
+      <c r="A24" s="18">
         <f>PRODUCT(F15,POWER(B3,2)/(POWER(B3,2)-POWER(F16,2)))</f>
         <v>-2.3323531278299173E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="44">
+      <c r="A25" s="19">
         <f>SUM(A22:A24)+1</f>
         <v>2.0843352631599847</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
+      <c r="A27" s="18">
         <f>PRODUCT(D17,POWER(B3,2)/(POWER(B3,2)-POWER(D18,2)))</f>
         <v>0.70435911393581052</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="43">
+      <c r="A28" s="18">
         <f>PRODUCT(E17,POWER(B3,2)/(POWER(B3,2)-POWER(E18,2)))</f>
         <v>0.41682628895401547</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="43">
+      <c r="A29" s="18">
         <f>PRODUCT(F17,POWER(B3,2)/(POWER(B3,2)-POWER(F18,2)))</f>
         <v>-2.3322871187722756E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="44">
+      <c r="A30" s="19">
         <f>SUM(A27:A29) + 1</f>
         <v>2.0978625317021034</v>
       </c>
@@ -2323,23 +2466,23 @@
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44">
+      <c r="A39" s="19">
         <f>(A30-A25)/2*A30</f>
         <v>1.4189174915391583E-2</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44">
+      <c r="A41" s="19">
         <f>SQRT(A30-A25)</f>
         <v>0.11630678631154164</v>
       </c>
@@ -2350,25 +2493,29 @@
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="44">
-        <f>8.69*(3.14*A30*POWER(10,9)/B3)*0.0000000000024</f>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="19">
+        <f>8.69*B49*2.4*10^-12</f>
         <v>8.7228244963874463E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
+      <c r="B49">
+        <f>(3.14*A30*10^9)/B3</f>
+        <v>4182405301.298162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="43">
-        <f>4.34*(8*3.14^3)/(3*(B3*(10^-6)^4))*(A30-1)*1.38E-23*1500*0.000000000081*1000</f>
-        <v>0.4187648063675094</v>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="18">
+        <f>4.34*(8*3.14^3)/(3*(B3*(10^-6)^4))*(A30-1)*1.38E-23*1500*8.1*10^-11*1000</f>
+        <v>0.41876480636750935</v>
       </c>
       <c r="C51">
         <f>8*POWER(3.14,3)</f>
@@ -2379,8 +2526,8 @@
         <v>1.575E-6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="44">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="19">
         <f>PRODUCT(4.34,C53,C54,1.38E-23,1500,0.000000000081,1000)</f>
         <v>0.10718363990578009</v>
       </c>
@@ -2389,27 +2536,79 @@
         <v>1.8460501171875002E-23</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C53">
         <f>C51/C52</f>
         <v>1.3416382886578169E+25</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C54">
         <f>A30-1</f>
         <v>1.0978625317021034</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>(26*10^-3*4.15)/(A39*160*(1+(80/3.14*160)^2))</f>
+        <v>2.8601160182748151E-9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>C61*D62*G62</f>
+        <v>2.4967490366294716E-5</v>
+      </c>
+      <c r="C61">
+        <f>2*10^-4</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62">
+        <f>(15*4.15^4)/(125^6*A39^3)</f>
+        <v>4.0827439177467713E-4</v>
+      </c>
+      <c r="G62">
+        <f>A66^6/B3^4</f>
+        <v>305.76850849947556</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>PRODUCT(12.97,4.15,SQRT(A39))/B3</f>
+        <v>4.0708592405797699</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>4.15*(0.65+1.61*A63^-1.5+2.879*A63^-6)</f>
+        <v>3.513601451841073</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="21"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="20">
